--- a/data/pca/factorExposure/factorExposure_2017-06-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0237518493033349</v>
+        <v>-0.01075648651712363</v>
       </c>
       <c r="C2">
-        <v>0.002505855127288466</v>
+        <v>0.04543892574650461</v>
       </c>
       <c r="D2">
-        <v>-0.03441168321538533</v>
+        <v>0.02982644266771638</v>
       </c>
       <c r="E2">
-        <v>-0.00324994250082647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03340556559618606</v>
+      </c>
+      <c r="F2">
+        <v>0.01000915218280125</v>
+      </c>
+      <c r="G2">
+        <v>0.09535163415658911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01793256912922068</v>
+        <v>-0.04498750666241014</v>
       </c>
       <c r="C3">
-        <v>-0.04308116561372979</v>
+        <v>0.09983470110424268</v>
       </c>
       <c r="D3">
-        <v>-0.1005353752085396</v>
+        <v>0.0168195907245712</v>
       </c>
       <c r="E3">
-        <v>-0.01579703123677649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09604569069251578</v>
+      </c>
+      <c r="F3">
+        <v>0.002312655672749437</v>
+      </c>
+      <c r="G3">
+        <v>0.1867628788010161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02528160419952227</v>
+        <v>-0.05583533636169334</v>
       </c>
       <c r="C4">
-        <v>-0.01367722031831803</v>
+        <v>0.06817456079944509</v>
       </c>
       <c r="D4">
-        <v>-0.08859924383804607</v>
+        <v>0.02443776851299376</v>
       </c>
       <c r="E4">
-        <v>0.02499980684171531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02683354340973821</v>
+      </c>
+      <c r="F4">
+        <v>0.01269650429050527</v>
+      </c>
+      <c r="G4">
+        <v>0.09536203934138977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01418489263498551</v>
+        <v>-0.03704960314905562</v>
       </c>
       <c r="C6">
-        <v>0.00472554868010842</v>
+        <v>0.05314481272850562</v>
       </c>
       <c r="D6">
-        <v>-0.08162916357989038</v>
+        <v>0.01685013201815087</v>
       </c>
       <c r="E6">
-        <v>0.01635873770804182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.0310088157456144</v>
+      </c>
+      <c r="F6">
+        <v>0.01183413033927044</v>
+      </c>
+      <c r="G6">
+        <v>0.07556253001814127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01169342627485833</v>
+        <v>-0.02059447584755923</v>
       </c>
       <c r="C7">
-        <v>-0.005521605814596296</v>
+        <v>0.04209816592895999</v>
       </c>
       <c r="D7">
-        <v>-0.04477741195000848</v>
+        <v>0.0134805985977475</v>
       </c>
       <c r="E7">
-        <v>0.06414228051100747</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.003683845921021298</v>
+      </c>
+      <c r="F7">
+        <v>-0.003989380820980373</v>
+      </c>
+      <c r="G7">
+        <v>0.1278272869916212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0005761176344501159</v>
+        <v>-0.003665325871610011</v>
       </c>
       <c r="C8">
-        <v>0.000903479533313007</v>
+        <v>0.02516451071006769</v>
       </c>
       <c r="D8">
-        <v>-0.004536138913345472</v>
+        <v>0.003980762079803854</v>
       </c>
       <c r="E8">
-        <v>0.008374513481824679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0233278683401304</v>
+      </c>
+      <c r="F8">
+        <v>0.007215635603073488</v>
+      </c>
+      <c r="G8">
+        <v>0.06659663071677527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01719362988538507</v>
+        <v>-0.03320358458923423</v>
       </c>
       <c r="C9">
-        <v>-0.01388464712518001</v>
+        <v>0.04933885081330824</v>
       </c>
       <c r="D9">
-        <v>-0.06410325979917202</v>
+        <v>0.0166929641208221</v>
       </c>
       <c r="E9">
-        <v>0.01360566541606434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01717808769692029</v>
+      </c>
+      <c r="F9">
+        <v>0.01029336173085857</v>
+      </c>
+      <c r="G9">
+        <v>0.09541121318935558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02693078896911803</v>
+        <v>-0.09861552827283016</v>
       </c>
       <c r="C10">
-        <v>-0.1720040959926993</v>
+        <v>-0.1814045477576408</v>
       </c>
       <c r="D10">
-        <v>0.1048054178961909</v>
+        <v>-0.01473110306798334</v>
       </c>
       <c r="E10">
-        <v>-0.02140889262867321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02068167612899558</v>
+      </c>
+      <c r="F10">
+        <v>-0.02186239973528188</v>
+      </c>
+      <c r="G10">
+        <v>0.06070563367888097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001190392998094733</v>
+        <v>-0.03498823566961004</v>
       </c>
       <c r="C11">
-        <v>-0.003831857360973345</v>
+        <v>0.05505465820576063</v>
       </c>
       <c r="D11">
-        <v>-0.0577354357996239</v>
+        <v>0.002263559695067161</v>
       </c>
       <c r="E11">
-        <v>0.006145775462632063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009852667579834124</v>
+      </c>
+      <c r="F11">
+        <v>0.02125831230382614</v>
+      </c>
+      <c r="G11">
+        <v>0.08408619336457239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005842588221480196</v>
+        <v>-0.03662296780241318</v>
       </c>
       <c r="C12">
-        <v>-0.004137307740401702</v>
+        <v>0.04928162283618047</v>
       </c>
       <c r="D12">
-        <v>-0.0516118537037037</v>
+        <v>0.00616818914126078</v>
       </c>
       <c r="E12">
-        <v>0.01570578940529907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.002558485208230341</v>
+      </c>
+      <c r="F12">
+        <v>0.00166169570455888</v>
+      </c>
+      <c r="G12">
+        <v>0.07849842240947574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02494976272877841</v>
+        <v>-0.01591287081459609</v>
       </c>
       <c r="C13">
-        <v>-0.01851689506447513</v>
+        <v>0.04096049073531436</v>
       </c>
       <c r="D13">
-        <v>-0.03805146507520169</v>
+        <v>0.02628855590874066</v>
       </c>
       <c r="E13">
-        <v>-0.0006970744497240875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03096711363465011</v>
+      </c>
+      <c r="F13">
+        <v>0.007413249122702707</v>
+      </c>
+      <c r="G13">
+        <v>0.1197317968124445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009189334147024291</v>
+        <v>-0.008727918206380454</v>
       </c>
       <c r="C14">
-        <v>-0.0131945488132124</v>
+        <v>0.02954960870539985</v>
       </c>
       <c r="D14">
-        <v>-0.02069820759352005</v>
+        <v>0.009935854897270054</v>
       </c>
       <c r="E14">
-        <v>0.008148967241653459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002760011606615599</v>
+      </c>
+      <c r="F14">
+        <v>-0.008560355632694328</v>
+      </c>
+      <c r="G14">
+        <v>0.098399723018401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001840049374369979</v>
+        <v>-0.0333520710690718</v>
       </c>
       <c r="C16">
-        <v>-0.008663093900943504</v>
+        <v>0.04859630647790634</v>
       </c>
       <c r="D16">
-        <v>-0.05122033537972513</v>
+        <v>0.001905123721110807</v>
       </c>
       <c r="E16">
-        <v>0.01538492663499236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.009596149595384504</v>
+      </c>
+      <c r="F16">
+        <v>0.002648504792986388</v>
+      </c>
+      <c r="G16">
+        <v>0.08702520285155406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01595890152764495</v>
+        <v>-0.02183936916876643</v>
       </c>
       <c r="C19">
-        <v>-0.01898642829605004</v>
+        <v>0.05409885486127406</v>
       </c>
       <c r="D19">
-        <v>-0.04718717099067912</v>
+        <v>0.01896850311966366</v>
       </c>
       <c r="E19">
-        <v>0.01445339177778707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06857627679968237</v>
+      </c>
+      <c r="F19">
+        <v>0.02498848567616043</v>
+      </c>
+      <c r="G19">
+        <v>0.1311497022171569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01160773854701065</v>
+        <v>-0.01497268133028714</v>
       </c>
       <c r="C20">
-        <v>-0.006729231230985851</v>
+        <v>0.04013153140661441</v>
       </c>
       <c r="D20">
-        <v>-0.03622509810540872</v>
+        <v>0.01414202072604914</v>
       </c>
       <c r="E20">
-        <v>-0.007847939328991154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02969395373411748</v>
+      </c>
+      <c r="F20">
+        <v>-0.01000914439339796</v>
+      </c>
+      <c r="G20">
+        <v>0.1055944024845962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01590040304442647</v>
+        <v>-0.01264592879284382</v>
       </c>
       <c r="C21">
-        <v>-0.01650017411463428</v>
+        <v>0.04059442652086531</v>
       </c>
       <c r="D21">
-        <v>-0.04066842304800355</v>
+        <v>0.01868641375754943</v>
       </c>
       <c r="E21">
-        <v>0.009680588123328776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04268831476958625</v>
+      </c>
+      <c r="F21">
+        <v>0.002578415783560336</v>
+      </c>
+      <c r="G21">
+        <v>0.1302544602147862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005917595454069389</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002305333860922455</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002673568967037103</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0009064131470764351</v>
+      </c>
+      <c r="F22">
+        <v>0.0002941906590798999</v>
+      </c>
+      <c r="G22">
+        <v>0.002134978656325053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005961135157542682</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002301790261431264</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002674944715861223</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0009122370138850086</v>
+      </c>
+      <c r="F23">
+        <v>0.0002928506092370906</v>
+      </c>
+      <c r="G23">
+        <v>0.00214644409502213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004422091484188618</v>
+        <v>-0.02843164052823787</v>
       </c>
       <c r="C24">
-        <v>0.003328226634839198</v>
+        <v>0.05166321843094013</v>
       </c>
       <c r="D24">
-        <v>-0.05180019766433585</v>
+        <v>0.007106823384486432</v>
       </c>
       <c r="E24">
-        <v>0.01402995554674335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0055135766005755</v>
+      </c>
+      <c r="F24">
+        <v>0.01376288077808046</v>
+      </c>
+      <c r="G24">
+        <v>0.08541767063230733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01281442837738708</v>
+        <v>-0.04324796828887082</v>
       </c>
       <c r="C25">
-        <v>-0.01422454242020359</v>
+        <v>0.05946548361720451</v>
       </c>
       <c r="D25">
-        <v>-0.05941396077397287</v>
+        <v>0.01108684415893961</v>
       </c>
       <c r="E25">
-        <v>0.0150816840820704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001492827970405889</v>
+      </c>
+      <c r="F25">
+        <v>0.007298623994962332</v>
+      </c>
+      <c r="G25">
+        <v>0.09554451482692727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02298343053158743</v>
+        <v>-0.01392813376025803</v>
       </c>
       <c r="C26">
-        <v>-0.003817809445722676</v>
+        <v>0.01207147250045873</v>
       </c>
       <c r="D26">
-        <v>-0.003697972213889139</v>
+        <v>0.02410436319406816</v>
       </c>
       <c r="E26">
-        <v>0.008828224133018821</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007218800052185455</v>
+      </c>
+      <c r="F26">
+        <v>-0.007554626010690403</v>
+      </c>
+      <c r="G26">
+        <v>0.07905609002110119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05141207654977972</v>
+        <v>-0.1254183631989359</v>
       </c>
       <c r="C28">
-        <v>-0.2391533030949546</v>
+        <v>-0.2368780548787527</v>
       </c>
       <c r="D28">
-        <v>0.1335994997760815</v>
+        <v>-0.005625490359199896</v>
       </c>
       <c r="E28">
-        <v>0.001289237865425199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.007348393889006734</v>
+      </c>
+      <c r="F28">
+        <v>-0.01513641515545973</v>
+      </c>
+      <c r="G28">
+        <v>0.05705714171021054</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009694131746382815</v>
+        <v>-0.009637747680183785</v>
       </c>
       <c r="C29">
-        <v>-0.01764058533755832</v>
+        <v>0.0233764987848884</v>
       </c>
       <c r="D29">
-        <v>-0.02130404223992773</v>
+        <v>0.008973822990527822</v>
       </c>
       <c r="E29">
-        <v>0.004659098435884662</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001857171202372808</v>
+      </c>
+      <c r="F29">
+        <v>-0.01782766311718853</v>
+      </c>
+      <c r="G29">
+        <v>0.09201188663251096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02467797467376982</v>
+        <v>-0.04171441354277344</v>
       </c>
       <c r="C30">
-        <v>0.001247927730491373</v>
+        <v>0.07054175459035034</v>
       </c>
       <c r="D30">
-        <v>-0.1016896190643766</v>
+        <v>0.02880436722762389</v>
       </c>
       <c r="E30">
-        <v>-0.02840123624496172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05279615370258333</v>
+      </c>
+      <c r="F30">
+        <v>0.04749441068285701</v>
+      </c>
+      <c r="G30">
+        <v>0.105464483237431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01061979261532153</v>
+        <v>-0.05296152987075504</v>
       </c>
       <c r="C31">
-        <v>-0.03388398023619917</v>
+        <v>0.03796238127591751</v>
       </c>
       <c r="D31">
-        <v>-0.03745513111486155</v>
+        <v>0.00387877965082863</v>
       </c>
       <c r="E31">
-        <v>0.008468984773863817</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.0009096476092058306</v>
+      </c>
+      <c r="F31">
+        <v>-0.03939391383848868</v>
+      </c>
+      <c r="G31">
+        <v>0.09222120740661388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005215220065990259</v>
+        <v>-0.001101401750491203</v>
       </c>
       <c r="C32">
-        <v>-0.01665356611959301</v>
+        <v>0.02599035694015991</v>
       </c>
       <c r="D32">
-        <v>-0.008967084974916465</v>
+        <v>-0.003255926154409473</v>
       </c>
       <c r="E32">
-        <v>0.06075260760107031</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.02019652915184518</v>
+      </c>
+      <c r="F32">
+        <v>0.04121843092321276</v>
+      </c>
+      <c r="G32">
+        <v>0.09331660987313876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01488506574078541</v>
+        <v>-0.0279007744565492</v>
       </c>
       <c r="C33">
-        <v>-0.02131457116937671</v>
+        <v>0.05076044693137019</v>
       </c>
       <c r="D33">
-        <v>-0.04371459222262522</v>
+        <v>0.0157638426640095</v>
       </c>
       <c r="E33">
-        <v>-0.01710940068100469</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03625812416212279</v>
+      </c>
+      <c r="F33">
+        <v>0.01834833747724304</v>
+      </c>
+      <c r="G33">
+        <v>0.1429945973695756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003171443157274217</v>
+        <v>-0.04078332865504328</v>
       </c>
       <c r="C34">
-        <v>-0.01710395367375146</v>
+        <v>0.06196017192506861</v>
       </c>
       <c r="D34">
-        <v>-0.05742141911082273</v>
+        <v>-0.004790086088329588</v>
       </c>
       <c r="E34">
-        <v>0.01979897969165525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0005620930834242453</v>
+      </c>
+      <c r="F34">
+        <v>0.01973794361264754</v>
+      </c>
+      <c r="G34">
+        <v>0.09253237768825624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01349449210032532</v>
+        <v>-0.015961728921791</v>
       </c>
       <c r="C36">
-        <v>-0.01617805197168534</v>
+        <v>0.009747532231174668</v>
       </c>
       <c r="D36">
-        <v>-0.006493919518469018</v>
+        <v>0.01235625898450481</v>
       </c>
       <c r="E36">
-        <v>0.008351405692274291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004622455979191397</v>
+      </c>
+      <c r="F36">
+        <v>-0.006607725098160928</v>
+      </c>
+      <c r="G36">
+        <v>0.08526677290850364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001279717617543632</v>
+        <v>-0.03224158560923084</v>
       </c>
       <c r="C38">
-        <v>-0.03375319921201073</v>
+        <v>0.03197841800322311</v>
       </c>
       <c r="D38">
-        <v>-0.04938011495464054</v>
+        <v>-0.007489464579210839</v>
       </c>
       <c r="E38">
-        <v>0.01574050624185809</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003108801881086296</v>
+      </c>
+      <c r="F38">
+        <v>-0.01927540452071678</v>
+      </c>
+      <c r="G38">
+        <v>0.08122542316506129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004491501860851435</v>
+        <v>-0.03659890987831354</v>
       </c>
       <c r="C39">
-        <v>0.02221646066804173</v>
+        <v>0.08205521462820621</v>
       </c>
       <c r="D39">
-        <v>-0.106721911676326</v>
+        <v>0.01144866352117781</v>
       </c>
       <c r="E39">
-        <v>0.004193340746182422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02143601970786514</v>
+      </c>
+      <c r="F39">
+        <v>0.02479538435080484</v>
+      </c>
+      <c r="G39">
+        <v>0.08388456709511508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01277763989925164</v>
+        <v>-0.01525052436401448</v>
       </c>
       <c r="C40">
-        <v>-0.0127344901056462</v>
+        <v>0.04330000131817575</v>
       </c>
       <c r="D40">
-        <v>-0.04279730263559954</v>
+        <v>0.01480295921003329</v>
       </c>
       <c r="E40">
-        <v>0.01924628021507411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02041717761463979</v>
+      </c>
+      <c r="F40">
+        <v>-0.01626413770273469</v>
+      </c>
+      <c r="G40">
+        <v>0.1219845345152779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006963091893753034</v>
+        <v>-0.02020587681587718</v>
       </c>
       <c r="C41">
-        <v>-0.02057008260457962</v>
+        <v>0.002352201026904535</v>
       </c>
       <c r="D41">
-        <v>0.0117671087919669</v>
+        <v>0.004364048971983242</v>
       </c>
       <c r="E41">
-        <v>0.004049843641782644</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003121263393043123</v>
+      </c>
+      <c r="F41">
+        <v>-0.01360618879822704</v>
+      </c>
+      <c r="G41">
+        <v>0.073365330379229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09112296035803533</v>
+        <v>-0.01051286356291844</v>
       </c>
       <c r="C42">
-        <v>0.02334971154481832</v>
+        <v>0.03209464706781749</v>
       </c>
       <c r="D42">
-        <v>-0.1637220035602925</v>
+        <v>0.0902414315444828</v>
       </c>
       <c r="E42">
-        <v>-0.439509919709388</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01867099200051558</v>
+      </c>
+      <c r="F42">
+        <v>-0.04404694070341909</v>
+      </c>
+      <c r="G42">
+        <v>-0.1224096945811258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008648081567664476</v>
+        <v>-0.03416111852823691</v>
       </c>
       <c r="C43">
-        <v>-0.0266072403633328</v>
+        <v>0.01793164076924739</v>
       </c>
       <c r="D43">
-        <v>0.008019614318227918</v>
+        <v>0.006049826327696215</v>
       </c>
       <c r="E43">
-        <v>0.004085333607465318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01695242864646312</v>
+      </c>
+      <c r="F43">
+        <v>-0.003297090558498599</v>
+      </c>
+      <c r="G43">
+        <v>0.1076300229449712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003751413577361839</v>
+        <v>-0.01264855464072689</v>
       </c>
       <c r="C44">
-        <v>-0.004706986956053608</v>
+        <v>0.06004683785330674</v>
       </c>
       <c r="D44">
-        <v>-0.05663369950216007</v>
+        <v>0.006842445492706801</v>
       </c>
       <c r="E44">
-        <v>0.01871428475552323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01874469292010074</v>
+      </c>
+      <c r="F44">
+        <v>-0.008800068555609756</v>
+      </c>
+      <c r="G44">
+        <v>0.1023998088412756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01159008374843596</v>
+        <v>-0.008196718424608311</v>
       </c>
       <c r="C46">
-        <v>-0.01088724137166491</v>
+        <v>0.01818507539014442</v>
       </c>
       <c r="D46">
-        <v>-0.007795575269833857</v>
+        <v>0.01265831506052982</v>
       </c>
       <c r="E46">
-        <v>-0.003462814645929555</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0019024548022761</v>
+      </c>
+      <c r="F46">
+        <v>-0.01697037022030903</v>
+      </c>
+      <c r="G46">
+        <v>0.09579922101851231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005361413044837718</v>
+        <v>-0.07748228877106715</v>
       </c>
       <c r="C47">
-        <v>-0.04326631191981201</v>
+        <v>0.06688787903351695</v>
       </c>
       <c r="D47">
-        <v>-0.07260674707708838</v>
+        <v>-0.005042582141505413</v>
       </c>
       <c r="E47">
-        <v>0.009353511672217645</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.005685901750279145</v>
+      </c>
+      <c r="F47">
+        <v>-0.05515180483757869</v>
+      </c>
+      <c r="G47">
+        <v>0.08194310517166521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004635038100072647</v>
+        <v>-0.01939694249012819</v>
       </c>
       <c r="C48">
-        <v>-0.02042198986308202</v>
+        <v>0.0129160200396531</v>
       </c>
       <c r="D48">
-        <v>-0.01849286537374143</v>
+        <v>0.002006210297422165</v>
       </c>
       <c r="E48">
-        <v>0.001637728791439993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002443970029457712</v>
+      </c>
+      <c r="F48">
+        <v>-0.01906848467318567</v>
+      </c>
+      <c r="G48">
+        <v>0.08777078666696113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.007712215282830738</v>
+        <v>-0.07478607712581276</v>
       </c>
       <c r="C50">
-        <v>-0.04610977727129395</v>
+        <v>0.07204224653019517</v>
       </c>
       <c r="D50">
-        <v>-0.0702244979274023</v>
+        <v>-0.002347665927933715</v>
       </c>
       <c r="E50">
-        <v>0.03030224629505595</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.005746710292519122</v>
+      </c>
+      <c r="F50">
+        <v>-0.05540182431377157</v>
+      </c>
+      <c r="G50">
+        <v>0.09302597231664959</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008528804304478645</v>
+        <v>-0.01450467720043823</v>
       </c>
       <c r="C51">
-        <v>-0.01503941492009028</v>
+        <v>0.03781705546923508</v>
       </c>
       <c r="D51">
-        <v>-0.02198348628371254</v>
+        <v>0.0105264253111985</v>
       </c>
       <c r="E51">
-        <v>0.008656698911518433</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01919180655794449</v>
+      </c>
+      <c r="F51">
+        <v>0.02338670098949665</v>
+      </c>
+      <c r="G51">
+        <v>0.1194110776662383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.009158578371140027</v>
+        <v>-0.08152597129720085</v>
       </c>
       <c r="C53">
-        <v>-0.05020617836826755</v>
+        <v>0.08542289269352253</v>
       </c>
       <c r="D53">
-        <v>-0.1265174473989349</v>
+        <v>-0.003471538573978627</v>
       </c>
       <c r="E53">
-        <v>0.01818324636534372</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02369548133255002</v>
+      </c>
+      <c r="F53">
+        <v>-0.06629923902280381</v>
+      </c>
+      <c r="G53">
+        <v>0.0795986651562646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.00303162534074254</v>
+        <v>-0.03072619424981837</v>
       </c>
       <c r="C54">
-        <v>-0.03574656005955085</v>
+        <v>0.01620805587014118</v>
       </c>
       <c r="D54">
-        <v>-0.001242978010759416</v>
+        <v>-0.001592840933320176</v>
       </c>
       <c r="E54">
-        <v>-0.001066753389320936</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01181538977925538</v>
+      </c>
+      <c r="F54">
+        <v>-0.001481440801089277</v>
+      </c>
+      <c r="G54">
+        <v>0.09496778147177447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.004723237901430252</v>
+        <v>-0.07186607824406339</v>
       </c>
       <c r="C55">
-        <v>-0.03359903658665619</v>
+        <v>0.06929503421207558</v>
       </c>
       <c r="D55">
-        <v>-0.1041433671044915</v>
+        <v>-0.004991575466489079</v>
       </c>
       <c r="E55">
-        <v>0.006399499458140901</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02105925247818487</v>
+      </c>
+      <c r="F55">
+        <v>-0.06263854864802033</v>
+      </c>
+      <c r="G55">
+        <v>0.05766904245563396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.008587874336926479</v>
+        <v>-0.137624019577499</v>
       </c>
       <c r="C56">
-        <v>-0.07333712837010947</v>
+        <v>0.1083389628153807</v>
       </c>
       <c r="D56">
-        <v>-0.1559434306345009</v>
+        <v>-0.01257627797743746</v>
       </c>
       <c r="E56">
-        <v>0.0115506055589395</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02938341880599856</v>
+      </c>
+      <c r="F56">
+        <v>-0.08175107188699549</v>
+      </c>
+      <c r="G56">
+        <v>0.03017762147929113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02511503142356509</v>
+        <v>-0.006683598581334819</v>
       </c>
       <c r="C57">
-        <v>-0.009859772128738195</v>
+        <v>0.008517483334159715</v>
       </c>
       <c r="D57">
-        <v>-0.04335188673865629</v>
+        <v>0.02343853452093179</v>
       </c>
       <c r="E57">
-        <v>-0.01437836525160704</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02540445059660329</v>
+      </c>
+      <c r="F57">
+        <v>0.01097508902813694</v>
+      </c>
+      <c r="G57">
+        <v>0.02902745880579632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01456774089098462</v>
+        <v>-0.05476900096335545</v>
       </c>
       <c r="C58">
-        <v>-0.06163257606715598</v>
+        <v>0.05354950829931897</v>
       </c>
       <c r="D58">
-        <v>-0.1710471408513229</v>
+        <v>0.02371274920041165</v>
       </c>
       <c r="E58">
-        <v>-0.6035687465204598</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9390356342388998</v>
+      </c>
+      <c r="F58">
+        <v>-0.2068249823875885</v>
+      </c>
+      <c r="G58">
+        <v>-0.1591850797372253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05190055653423321</v>
+        <v>-0.1601228393594583</v>
       </c>
       <c r="C59">
-        <v>-0.2673705731172915</v>
+        <v>-0.20354532873311</v>
       </c>
       <c r="D59">
-        <v>0.1229163403232125</v>
+        <v>-0.01120546033219555</v>
       </c>
       <c r="E59">
-        <v>0.01723345422646172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01804525836578623</v>
+      </c>
+      <c r="F59">
+        <v>0.002575132979251375</v>
+      </c>
+      <c r="G59">
+        <v>0.04304244258037136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04968384895315736</v>
+        <v>-0.286963217934181</v>
       </c>
       <c r="C60">
-        <v>-0.1622383375960305</v>
+        <v>0.1059603432738591</v>
       </c>
       <c r="D60">
-        <v>-0.1258487550192464</v>
+        <v>0.01139500964379968</v>
       </c>
       <c r="E60">
-        <v>0.08076760550843166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0153229345906647</v>
+      </c>
+      <c r="F60">
+        <v>0.3460515514502481</v>
+      </c>
+      <c r="G60">
+        <v>-0.1459379103097989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003819960328946484</v>
+        <v>-0.03821902046414586</v>
       </c>
       <c r="C61">
-        <v>-0.004125314335543147</v>
+        <v>0.06761831750739407</v>
       </c>
       <c r="D61">
-        <v>-0.07869936464366871</v>
+        <v>0.005232411930486422</v>
       </c>
       <c r="E61">
-        <v>0.02036013329996113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01407137535817834</v>
+      </c>
+      <c r="F61">
+        <v>0.01545934326907758</v>
+      </c>
+      <c r="G61">
+        <v>0.08882666152637284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008839498970314512</v>
+        <v>-0.01506060551685439</v>
       </c>
       <c r="C63">
-        <v>-0.007819671025909174</v>
+        <v>0.03063728989609216</v>
       </c>
       <c r="D63">
-        <v>-0.02800314862127675</v>
+        <v>0.008618063557119452</v>
       </c>
       <c r="E63">
-        <v>0.02194139927196245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.002150547955516734</v>
+      </c>
+      <c r="F63">
+        <v>-0.0160436383553152</v>
+      </c>
+      <c r="G63">
+        <v>0.09112006654024887</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01024001426420868</v>
+        <v>-0.04771756989762268</v>
       </c>
       <c r="C64">
-        <v>-0.02798141341888422</v>
+        <v>0.04744845455979272</v>
       </c>
       <c r="D64">
-        <v>-0.06178927087367046</v>
+        <v>0.006116246098551215</v>
       </c>
       <c r="E64">
-        <v>0.00564120938437268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>8.191338111765827e-05</v>
+      </c>
+      <c r="F64">
+        <v>0.006201432265382567</v>
+      </c>
+      <c r="G64">
+        <v>0.085367527653438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01731473625899818</v>
+        <v>-0.07491246061987117</v>
       </c>
       <c r="C65">
-        <v>0.0003392527228412144</v>
+        <v>0.06000252614974846</v>
       </c>
       <c r="D65">
-        <v>-0.1043793461196516</v>
+        <v>0.01640985266974055</v>
       </c>
       <c r="E65">
-        <v>0.02844052765946381</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0316671695161022</v>
+      </c>
+      <c r="F65">
+        <v>0.03199565986357408</v>
+      </c>
+      <c r="G65">
+        <v>0.03189455098758407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005200598143871</v>
+        <v>-0.0519078820768424</v>
       </c>
       <c r="C66">
-        <v>0.01630796221541734</v>
+        <v>0.1101464131772022</v>
       </c>
       <c r="D66">
-        <v>-0.1410139809809421</v>
+        <v>0.01145104788809704</v>
       </c>
       <c r="E66">
-        <v>0.01336682564785789</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03060948951946207</v>
+      </c>
+      <c r="F66">
+        <v>0.03636472171948914</v>
+      </c>
+      <c r="G66">
+        <v>0.1005102453709694</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.005915233357444003</v>
+        <v>-0.05531284638958726</v>
       </c>
       <c r="C67">
-        <v>-0.05397518561283454</v>
+        <v>0.03525624698290335</v>
       </c>
       <c r="D67">
-        <v>-0.06353531891963218</v>
+        <v>-0.00590687611816434</v>
       </c>
       <c r="E67">
-        <v>0.01841074851046205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003505072462392717</v>
+      </c>
+      <c r="F67">
+        <v>-0.01806641586823394</v>
+      </c>
+      <c r="G67">
+        <v>0.07296859357768007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06605045693255239</v>
+        <v>-0.1533207159771834</v>
       </c>
       <c r="C68">
-        <v>-0.2398483355069855</v>
+        <v>-0.2700199329638108</v>
       </c>
       <c r="D68">
-        <v>0.1647740661444964</v>
+        <v>0.006259139101093089</v>
       </c>
       <c r="E68">
-        <v>-0.02957257156003659</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01265146651943445</v>
+      </c>
+      <c r="F68">
+        <v>-0.03361767699744535</v>
+      </c>
+      <c r="G68">
+        <v>0.03149947177015654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001033905891396063</v>
+        <v>-0.08165429370230155</v>
       </c>
       <c r="C69">
-        <v>-0.03790577313876092</v>
+        <v>0.07004911965593331</v>
       </c>
       <c r="D69">
-        <v>-0.0758358997255023</v>
+        <v>-0.008950536713296545</v>
       </c>
       <c r="E69">
-        <v>0.02366318871481348</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0220133835758419</v>
+      </c>
+      <c r="F69">
+        <v>-0.03752236170593908</v>
+      </c>
+      <c r="G69">
+        <v>0.0913854179802345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05045059433538773</v>
+        <v>-0.1399913734164142</v>
       </c>
       <c r="C71">
-        <v>-0.2120090521410766</v>
+        <v>-0.2275921424893641</v>
       </c>
       <c r="D71">
-        <v>0.1121951682740898</v>
+        <v>-0.002254718284403249</v>
       </c>
       <c r="E71">
-        <v>-0.0211315564608862</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03405223935658751</v>
+      </c>
+      <c r="F71">
+        <v>-0.01856689180437736</v>
+      </c>
+      <c r="G71">
+        <v>0.06750513048201322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0003062702512447773</v>
+        <v>-0.08538483366299976</v>
       </c>
       <c r="C72">
-        <v>-0.03281327563189906</v>
+        <v>0.07307518158275138</v>
       </c>
       <c r="D72">
-        <v>-0.1079313725549067</v>
+        <v>-0.008483987636559715</v>
       </c>
       <c r="E72">
-        <v>0.04024095169115429</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.005167651889712769</v>
+      </c>
+      <c r="F72">
+        <v>0.03691746695359331</v>
+      </c>
+      <c r="G72">
+        <v>0.07939577333242469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06376689740556581</v>
+        <v>-0.3766157422294584</v>
       </c>
       <c r="C73">
-        <v>-0.18590038741436</v>
+        <v>0.1146537581031664</v>
       </c>
       <c r="D73">
-        <v>-0.2382397232963051</v>
+        <v>0.01898160997917249</v>
       </c>
       <c r="E73">
-        <v>0.06685377086826799</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.04934860957925929</v>
+      </c>
+      <c r="F73">
+        <v>0.5747165149763922</v>
+      </c>
+      <c r="G73">
+        <v>-0.2644215458081461</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.006320379305075427</v>
+        <v>-0.1053069231471141</v>
       </c>
       <c r="C74">
-        <v>-0.06410685566093779</v>
+        <v>0.1095260353491609</v>
       </c>
       <c r="D74">
-        <v>-0.1704179643386952</v>
+        <v>-0.009326719119081684</v>
       </c>
       <c r="E74">
-        <v>0.008814570968330718</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.004585398794740038</v>
+      </c>
+      <c r="F74">
+        <v>-0.06840872523375477</v>
+      </c>
+      <c r="G74">
+        <v>0.07411967780943531</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01673124421103847</v>
+        <v>-0.2489625248503327</v>
       </c>
       <c r="C75">
-        <v>-0.1492842802722899</v>
+        <v>0.1514230942784273</v>
       </c>
       <c r="D75">
-        <v>-0.2907789979622926</v>
+        <v>-0.0308083142018598</v>
       </c>
       <c r="E75">
-        <v>0.008340027393965624</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05299947024861104</v>
+      </c>
+      <c r="F75">
+        <v>-0.1788795776707888</v>
+      </c>
+      <c r="G75">
+        <v>-0.0414517015699325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004609913084390054</v>
+        <v>-0.1201599141618269</v>
       </c>
       <c r="C76">
-        <v>-0.09335796682533842</v>
+        <v>0.1104125794409117</v>
       </c>
       <c r="D76">
-        <v>-0.216013540593377</v>
+        <v>-0.01863014661973087</v>
       </c>
       <c r="E76">
-        <v>0.04283078268066137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02691019589649315</v>
+      </c>
+      <c r="F76">
+        <v>-0.1123645272404955</v>
+      </c>
+      <c r="G76">
+        <v>0.05246205387946119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01592345337267887</v>
+        <v>-0.06842674661693234</v>
       </c>
       <c r="C77">
-        <v>-0.02320097380731449</v>
+        <v>0.06215784432122699</v>
       </c>
       <c r="D77">
-        <v>-0.07203785270416889</v>
+        <v>0.01154453125068492</v>
       </c>
       <c r="E77">
-        <v>-0.002160147297553427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04279527393521212</v>
+      </c>
+      <c r="F77">
+        <v>0.01118049339962053</v>
+      </c>
+      <c r="G77">
+        <v>0.06390176073827077</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006189473730194558</v>
+        <v>-0.0425593595063667</v>
       </c>
       <c r="C78">
-        <v>-0.01404710802395948</v>
+        <v>0.05220706281723957</v>
       </c>
       <c r="D78">
-        <v>-0.05798940083355089</v>
+        <v>0.005420157483079302</v>
       </c>
       <c r="E78">
-        <v>0.007939577089944637</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02197617287478267</v>
+      </c>
+      <c r="F78">
+        <v>0.03646511143293803</v>
+      </c>
+      <c r="G78">
+        <v>0.08783248911379168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01159994732579126</v>
+        <v>-0.04356908135856106</v>
       </c>
       <c r="C80">
-        <v>-0.02223669505344155</v>
+        <v>0.07443374069100576</v>
       </c>
       <c r="D80">
-        <v>-0.149768781330917</v>
+        <v>0.01133846427807615</v>
       </c>
       <c r="E80">
-        <v>0.6194679955548127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03254491985784358</v>
+      </c>
+      <c r="F80">
+        <v>0.02913292186788462</v>
+      </c>
+      <c r="G80">
+        <v>0.344516236361364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01190965241168352</v>
+        <v>-0.1396438522935662</v>
       </c>
       <c r="C81">
-        <v>-0.09430911927639342</v>
+        <v>0.09684666921989764</v>
       </c>
       <c r="D81">
-        <v>-0.1763057788759791</v>
+        <v>-0.01508494877072089</v>
       </c>
       <c r="E81">
-        <v>0.02468042509849743</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03065322908492544</v>
+      </c>
+      <c r="F81">
+        <v>-0.1347647578523258</v>
+      </c>
+      <c r="G81">
+        <v>0.0243029704074372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1277388250353455</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07313544982837214</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008148894510500356</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08955471694810783</v>
+      </c>
+      <c r="F82">
+        <v>-0.0436500301335943</v>
+      </c>
+      <c r="G82">
+        <v>0.05619743523337194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008374616914047782</v>
+        <v>-0.0365365526814632</v>
       </c>
       <c r="C83">
-        <v>-0.02183308079518304</v>
+        <v>0.02982448863282906</v>
       </c>
       <c r="D83">
-        <v>-0.03634528332782494</v>
+        <v>0.005622959301439469</v>
       </c>
       <c r="E83">
-        <v>-0.0003187110693867507</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02744595496907557</v>
+      </c>
+      <c r="F83">
+        <v>0.03276380015409219</v>
+      </c>
+      <c r="G83">
+        <v>0.0602513759986946</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02319194656951098</v>
+        <v>-0.2141242512069443</v>
       </c>
       <c r="C85">
-        <v>-0.1173208701784461</v>
+        <v>0.1449087769423582</v>
       </c>
       <c r="D85">
-        <v>-0.2605923421171666</v>
+        <v>-0.01810908743984537</v>
       </c>
       <c r="E85">
-        <v>0.02016336315039495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09290366419369037</v>
+      </c>
+      <c r="F85">
+        <v>-0.1381029359720395</v>
+      </c>
+      <c r="G85">
+        <v>-0.09824950163102632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01086578400110929</v>
+        <v>-0.0147582023869795</v>
       </c>
       <c r="C86">
-        <v>-0.02967155394120817</v>
+        <v>0.03093940162965723</v>
       </c>
       <c r="D86">
-        <v>-0.06097268156609213</v>
+        <v>0.01239782251784538</v>
       </c>
       <c r="E86">
-        <v>-0.03454334741002167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04939796900199833</v>
+      </c>
+      <c r="F86">
+        <v>0.03074789500744999</v>
+      </c>
+      <c r="G86">
+        <v>0.1824575311161176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008259137436119302</v>
+        <v>-0.02265069861546692</v>
       </c>
       <c r="C87">
-        <v>-0.000406247099526348</v>
+        <v>0.0242316376670858</v>
       </c>
       <c r="D87">
-        <v>-0.0561815005249388</v>
+        <v>0.01188380173121624</v>
       </c>
       <c r="E87">
-        <v>-0.006941412809515878</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08641456170486697</v>
+      </c>
+      <c r="F87">
+        <v>0.01716621223740783</v>
+      </c>
+      <c r="G87">
+        <v>0.1144447554389255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02904517564372649</v>
+        <v>-0.09229101883695554</v>
       </c>
       <c r="C88">
-        <v>-0.02959558440353934</v>
+        <v>0.06743233143103765</v>
       </c>
       <c r="D88">
-        <v>-0.05628229515757496</v>
+        <v>0.02261836635178761</v>
       </c>
       <c r="E88">
-        <v>0.0004582352507380742</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.006960480953233752</v>
+      </c>
+      <c r="F88">
+        <v>-0.01651287197319636</v>
+      </c>
+      <c r="G88">
+        <v>0.08015124672085444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09577719110099689</v>
+        <v>-0.2326899618425688</v>
       </c>
       <c r="C89">
-        <v>-0.3919450891699124</v>
+        <v>-0.3683706515744153</v>
       </c>
       <c r="D89">
-        <v>0.2093161699562717</v>
+        <v>0.0001023583949874273</v>
       </c>
       <c r="E89">
-        <v>0.02610420177447706</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01294909001830088</v>
+      </c>
+      <c r="F89">
+        <v>-0.02792473592445944</v>
+      </c>
+      <c r="G89">
+        <v>0.07058159892052498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.0736894956516678</v>
+        <v>-0.2074541517544269</v>
       </c>
       <c r="C90">
-        <v>-0.3074645040052209</v>
+        <v>-0.3184648189893658</v>
       </c>
       <c r="D90">
-        <v>0.1865224778243692</v>
+        <v>-0.004035096319557221</v>
       </c>
       <c r="E90">
-        <v>-0.01935079103241713</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.001295336005020551</v>
+      </c>
+      <c r="F90">
+        <v>-0.05454314989196379</v>
+      </c>
+      <c r="G90">
+        <v>0.03696362337794912</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01331073867080689</v>
+        <v>-0.1872557546842382</v>
       </c>
       <c r="C91">
-        <v>-0.1316964342186671</v>
+        <v>0.1390216082342709</v>
       </c>
       <c r="D91">
-        <v>-0.2147221162536109</v>
+        <v>-0.0223648286296645</v>
       </c>
       <c r="E91">
-        <v>0.02293327157620486</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05680375492261974</v>
+      </c>
+      <c r="F91">
+        <v>-0.1483398856302144</v>
+      </c>
+      <c r="G91">
+        <v>0.01805897955048896</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.04214316349188738</v>
+        <v>-0.1999010992352627</v>
       </c>
       <c r="C92">
-        <v>-0.3205019776665667</v>
+        <v>-0.2551586382531368</v>
       </c>
       <c r="D92">
-        <v>0.08034993265201351</v>
+        <v>-0.03749747762421429</v>
       </c>
       <c r="E92">
-        <v>-0.03078044551318167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.04118271932791685</v>
+      </c>
+      <c r="F92">
+        <v>-0.0558003643852294</v>
+      </c>
+      <c r="G92">
+        <v>0.1320645484041453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.0729848338403833</v>
+        <v>-0.2324944523678723</v>
       </c>
       <c r="C93">
-        <v>-0.3341116867020728</v>
+        <v>-0.3146128654153542</v>
       </c>
       <c r="D93">
-        <v>0.1598792183267526</v>
+        <v>-0.01105660951093582</v>
       </c>
       <c r="E93">
-        <v>-0.02710152442703619</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01012144131320841</v>
+      </c>
+      <c r="F93">
+        <v>-0.04121386738363066</v>
+      </c>
+      <c r="G93">
+        <v>0.04817719808249523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.04186758288345957</v>
+        <v>-0.3158831389906314</v>
       </c>
       <c r="C94">
-        <v>-0.1675737622659035</v>
+        <v>0.174779416313295</v>
       </c>
       <c r="D94">
-        <v>-0.2471578603444422</v>
+        <v>-0.01729697325747144</v>
       </c>
       <c r="E94">
-        <v>-0.006430194448240563</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.168170284675944</v>
+      </c>
+      <c r="F94">
+        <v>-0.4840192783635604</v>
+      </c>
+      <c r="G94">
+        <v>-0.3827721044736209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00253987107431658</v>
+        <v>-0.1008115350654458</v>
       </c>
       <c r="C95">
-        <v>-0.03440367414202046</v>
+        <v>0.08608018226680335</v>
       </c>
       <c r="D95">
-        <v>-0.1181643876190161</v>
+        <v>-0.01070999481099246</v>
       </c>
       <c r="E95">
-        <v>-0.1305162140301021</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06494975877769213</v>
+      </c>
+      <c r="F95">
+        <v>0.2106910975426404</v>
+      </c>
+      <c r="G95">
+        <v>-0.09631266863960496</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02081106770278833</v>
+        <v>-0.1975450325499339</v>
       </c>
       <c r="C98">
-        <v>-0.1558023883673554</v>
+        <v>0.04496518801262373</v>
       </c>
       <c r="D98">
-        <v>-0.1433502887598614</v>
+        <v>-0.01387280098079012</v>
       </c>
       <c r="E98">
-        <v>0.00971581567553903</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.05921408640347335</v>
+      </c>
+      <c r="F98">
+        <v>0.2418230582086801</v>
+      </c>
+      <c r="G98">
+        <v>-0.009307272906107044</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009497105128975869</v>
+        <v>-0.009474236755248491</v>
       </c>
       <c r="C101">
-        <v>-0.01744948464434406</v>
+        <v>0.02333934143973935</v>
       </c>
       <c r="D101">
-        <v>-0.02123839363780808</v>
+        <v>0.008802248331920013</v>
       </c>
       <c r="E101">
-        <v>0.004490421906181088</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001644591595478074</v>
+      </c>
+      <c r="F101">
+        <v>-0.01871167079707462</v>
+      </c>
+      <c r="G101">
+        <v>0.09107185628393512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01929881660453739</v>
+        <v>-0.1170806545786992</v>
       </c>
       <c r="C102">
-        <v>-0.05926399984551747</v>
+        <v>0.08364230188360323</v>
       </c>
       <c r="D102">
-        <v>-0.1226445516713024</v>
+        <v>0.0007558424015357989</v>
       </c>
       <c r="E102">
-        <v>0.01194231155639537</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03398891145593597</v>
+      </c>
+      <c r="F102">
+        <v>-0.0406091674319768</v>
+      </c>
+      <c r="G102">
+        <v>0.005691381456962042</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.0006261935972125632</v>
+        <v>-0.0005649948841501247</v>
       </c>
       <c r="C103">
-        <v>-0.0007010148788351594</v>
+        <v>0.00200576881595361</v>
       </c>
       <c r="D103">
-        <v>-0.006999537529847609</v>
+        <v>0.0004154320929357662</v>
       </c>
       <c r="E103">
-        <v>-0.005515875876992453</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.003254125432769315</v>
+      </c>
+      <c r="F103">
+        <v>-0.003685404738253052</v>
+      </c>
+      <c r="G103">
+        <v>0.00565383898729572</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9681725816515987</v>
+        <v>-0.0212264655950984</v>
       </c>
       <c r="C104">
-        <v>0.210609278735654</v>
+        <v>-0.02914486239841163</v>
       </c>
       <c r="D104">
-        <v>0.02433338788952746</v>
+        <v>0.9878478902886058</v>
       </c>
       <c r="E104">
-        <v>0.03474691484305576</v>
+        <v>-0.04589082570866958</v>
+      </c>
+      <c r="F104">
+        <v>-0.03535391985135399</v>
+      </c>
+      <c r="G104">
+        <v>-0.03312140254126068</v>
       </c>
     </row>
   </sheetData>
